--- a/projects/02-openMP/01-report/imgs/charts.xlsx
+++ b/projects/02-openMP/01-report/imgs/charts.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlroo/space/LOYOLA/GRAD/F17/COMP464/high-performance/projects/02-OpenMP/01-report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlroo/space/LOYOLA/GRAD/F17/COMP464/high-performance/projects/02-openMP/01-report/imgs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
     <t>Threads</t>
   </si>
@@ -662,11 +662,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-358214336"/>
-        <c:axId val="-358916176"/>
+        <c:axId val="-1277374032"/>
+        <c:axId val="-1276426320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-358214336"/>
+        <c:axId val="-1277374032"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -780,12 +780,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-358916176"/>
+        <c:crossAx val="-1276426320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-358916176"/>
+        <c:axId val="-1276426320"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -898,7 +898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-358214336"/>
+        <c:crossAx val="-1277374032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1407,11 +1407,1061 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-358187600"/>
-        <c:axId val="-358183328"/>
+        <c:axId val="-1236093648"/>
+        <c:axId val="-1236090064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-358187600"/>
+        <c:axId val="-1236093648"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1236090064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1236090064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency (T1/Tp)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1236093648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.02"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weak!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>weak!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>weak!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.938736575595666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.43579980672665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.533182369454409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.329586594877585</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.63539558394272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.556188347853414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weak!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1414</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>weak!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>weak!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.906326916125923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.550931136446673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.437872753187588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.87068690214485</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.63831196508508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.960899852949544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weak!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>weak!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>weak!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.978434971907466</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.693404348899685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.934195352611449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.94205776871645</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.73649669543293</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.80021911152312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weak!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2828</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>weak!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>weak!$L$2:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.977778072142281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.752410910982816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.272478510195298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.37877289380964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.81946677405693</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.4183726739191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weak!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>weak!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>weak!$O$2:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.009471383751848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.801718436884134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.458537748711667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.292437232598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.31421463367009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.8394152441152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weak!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5657</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>weak!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>weak!$R$2:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.988361740183187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.792283995646377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.508815111317749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.62465580552455</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.0551910918776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.12028253427541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weak!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>weak!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>weak!$U$2:$U$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.99677036677179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.805756410833298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.567831929699995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.93812675465993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.64418300935576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.12791049574771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1236083664"/>
+        <c:axId val="-1236080320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1236083664"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1525,1065 +2575,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-358183328"/>
+        <c:crossAx val="-1236080320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-358183328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.2"/>
-          <c:min val="0.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Efficiency (T1/Tp)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-358187600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:minorUnit val="0.02"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>weak!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>weak!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>weak!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.938736575595666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.43579980672665</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.533182369454409</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.329586594877585</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.63539558394272</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.556188347853414</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>weak!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1414</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>weak!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>weak!$F$2:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.906326916125923</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.550931136446673</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.437872753187588</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.87068690214485</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.63831196508508</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.960899852949544</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>weak!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>weak!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>weak!$I$2:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.978434971907466</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.693404348899685</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.934195352611449</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.94205776871645</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.73649669543293</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.80021911152312</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>weak!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2828</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>weak!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>weak!$L$2:$L$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.977778072142281</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.752410910982816</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.272478510195298</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.37877289380964</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.81946677405693</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.4183726739191</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>weak!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>weak!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>weak!$O$2:$O$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.009471383751848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.801718436884134</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.458537748711667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.292437232598</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.31421463367009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33.8394152441152</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>weak!$R$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5657</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>weak!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>weak!$R$2:$R$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.988361740183187</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.792283995646377</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.508815111317749</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.62465580552455</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27.0551910918776</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43.12028253427541</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>weak!$U$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>weak!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>weak!$U$2:$U$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.99677036677179</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.805756410833298</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.567831929699995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.93812675465993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.64418300935576</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50.12791049574771</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-395800176"/>
-        <c:axId val="-395790064"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-395800176"/>
-        <c:scaling>
-          <c:logBase val="2.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Threads</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-395790064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-395790064"/>
+        <c:axId val="-1236080320"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2696,7 +2693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-395800176"/>
+        <c:crossAx val="-1236083664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3511,11 +3508,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-358132768"/>
-        <c:axId val="-358129008"/>
+        <c:axId val="-1194023952"/>
+        <c:axId val="-1194020192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-358132768"/>
+        <c:axId val="-1194023952"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3628,12 +3625,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-358129008"/>
+        <c:crossAx val="-1194020192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-358129008"/>
+        <c:axId val="-1194020192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3745,7 +3742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-358132768"/>
+        <c:crossAx val="-1194023952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3945,11 +3942,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-262860288"/>
-        <c:axId val="-262857808"/>
+        <c:axId val="-1193999648"/>
+        <c:axId val="-1193996112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-262860288"/>
+        <c:axId val="-1193999648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4048,7 +4045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-262857808"/>
+        <c:crossAx val="-1193996112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4056,7 +4053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-262857808"/>
+        <c:axId val="-1193996112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4163,7 +4160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-262860288"/>
+        <c:crossAx val="-1193999648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4331,11 +4328,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-263737008"/>
-        <c:axId val="-263419664"/>
+        <c:axId val="-1193974336"/>
+        <c:axId val="-1193970576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-263737008"/>
+        <c:axId val="-1193974336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4434,7 +4431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-263419664"/>
+        <c:crossAx val="-1193970576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4442,7 +4439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-263419664"/>
+        <c:axId val="-1193970576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.4"/>
@@ -4550,7 +4547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-263737008"/>
+        <c:crossAx val="-1193974336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8074,14 +8071,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -8788,8 +8785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P38" workbookViewId="0">
-      <selection activeCell="W44" sqref="W44"/>
+    <sheetView tabSelected="1" topLeftCell="N22" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8808,6 +8805,7 @@
     <col min="13" max="13" width="6.83203125" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
     <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -9452,12 +9450,20 @@
         <v>0.78324860149605791</v>
       </c>
     </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S14" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q15" s="5">
         <v>1000</v>
       </c>
       <c r="R15">
         <v>2.609648</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -9467,45 +9473,69 @@
       <c r="R16">
         <v>2.7887520000000001</v>
       </c>
+      <c r="S16">
+        <f>R$15/R16</f>
+        <v>0.93577628989598205</v>
+      </c>
     </row>
-    <row r="17" spans="17:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q17" s="5">
         <v>2000</v>
       </c>
       <c r="R17">
         <v>2.7578930000000001</v>
       </c>
+      <c r="S17">
+        <f t="shared" ref="S17:S21" si="14">R$15/R17</f>
+        <v>0.94624700813265772</v>
+      </c>
     </row>
-    <row r="18" spans="17:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q18" s="7">
         <v>2828</v>
       </c>
       <c r="R18">
         <v>2.7510720000000002</v>
       </c>
+      <c r="S18">
+        <f t="shared" si="14"/>
+        <v>0.94859313024159297</v>
+      </c>
     </row>
-    <row r="19" spans="17:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q19" s="7">
         <v>4000</v>
       </c>
       <c r="R19">
         <v>2.8227630000000001</v>
       </c>
+      <c r="S19">
+        <f t="shared" si="14"/>
+        <v>0.92450127764888512</v>
+      </c>
     </row>
-    <row r="20" spans="17:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q20" s="7">
         <v>5657</v>
       </c>
       <c r="R20">
         <v>2.8390270000000002</v>
       </c>
+      <c r="S20">
+        <f t="shared" si="14"/>
+        <v>0.91920506567919213</v>
+      </c>
     </row>
-    <row r="21" spans="17:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q21" s="7">
         <v>8000</v>
       </c>
       <c r="R21">
         <v>3.1787540000000001</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="14"/>
+        <v>0.82096569913871908</v>
       </c>
     </row>
     <row r="49" spans="17:18" x14ac:dyDescent="0.2">
